--- a/biology/Médecine/Sarcome_utérin/Sarcome_utérin.xlsx
+++ b/biology/Médecine/Sarcome_utérin/Sarcome_utérin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarcome_ut%C3%A9rin</t>
+          <t>Sarcome_utérin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sarcomes utérins forment un groupe de tumeurs malignes qui proviennent du muscle lisse ou du tissu conjonctif de l'utérus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarcome_ut%C3%A9rin</t>
+          <t>Sarcome_utérin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des saignements inhabituels ou postménopausiques peuvent être le signe d'une tumeur maligne, y compris un sarcome utérin, et doivent être étudiés. D'autres signes comprennent des douleurs pelviennes, une pression et un écoulement inhabituel. Un utérus non enceinte qui grossit rapidement est suspect. Cependant, aucun des signes n'est spécifique. Aucun test de dépistage spécifique n'a été mis au point. Le test de Papanicolaou, qui est un test de dépistage du cancer du col de l'utérus, n'est pas conçu pour détecter un sarcome utérin.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarcome_ut%C3%A9rin</t>
+          <t>Sarcome_utérin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les entités tumorales comprennent les léiomyosarcomes, les sarcomes stromaux de l'endomètre, les carcinosarcomes et les «autres» sarcomes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les entités tumorales comprennent les léiomyosarcomes, les sarcomes stromaux de l'endomètre, les carcinosarcomes et les «autres» sarcomes.
 Si la lésion provient du stroma de la muqueuse utérine, il s'agit d'un sarcome stromal de l'endomètre,
 Si la cellule musculaire utérine est à l'origine, la tumeur est un léiomyosarcome utérin,
 Les carcinosarcomes comprennent à la fois des composants épithéliaux malins et sarcomateux malins.</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sarcome_ut%C3%A9rin</t>
+          <t>Sarcome_utérin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Classification
-Les léiomyosarcomes sont désormais classés en utilisant le système de stadification FIGO 2009 [2] (auparavant ils étaient classés comme des carcinomes de l'endomètre) au moment de la chirurgie.
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les léiomyosarcomes sont désormais classés en utilisant le système de stadification FIGO 2009  (auparavant ils étaient classés comme des carcinomes de l'endomètre) au moment de la chirurgie.
 Stade I: la tumeur est limitée à l'utérus
 IA: ≤5 cm dans la plus grande dimension
 IB:&gt; 5 cm
@@ -596,7 +617,7 @@
 IA: limité à l'endomètre / endocervix
 IB: envahit &lt;½ myomètre
 IC: envahit ≥½ myomètre
-Enfin, les tumeurs mixtes malignes de Müller, un type de carcinosarcome, sont classées de la même manière que les carcinomes de l'endomètre[3].
+Enfin, les tumeurs mixtes malignes de Müller, un type de carcinosarcome, sont classées de la même manière que les carcinomes de l'endomètre.
 Stade I: la tumeur est limitée à l'utérus
 IA: envahit &lt;½ myomètre
 IB: envahit ≥½ myomètre
@@ -618,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sarcome_ut%C3%A9rin</t>
+          <t>Sarcome_utérin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,9 +657,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sarcomes utérins sont rares, parmi toutes les tumeurs malignes du corps utérin, seulement 4% environ seront des sarcomes utérins[4]. En général, la cause de la lésion n'est pas connue, mais les patients ayant des antécédents de rayonnement pelvien sont plus à risque. La plupart des tumeurs surviennent après la ménopause. Les femmes qui prennent du tamoxifène à long terme courent un risque plus élevé[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sarcomes utérins sont rares, parmi toutes les tumeurs malignes du corps utérin, seulement 4% environ seront des sarcomes utérins. En général, la cause de la lésion n'est pas connue, mais les patients ayant des antécédents de rayonnement pelvien sont plus à risque. La plupart des tumeurs surviennent après la ménopause. Les femmes qui prennent du tamoxifène à long terme courent un risque plus élevé.
 </t>
         </is>
       </c>
